--- a/卒業研究リンク.xlsx
+++ b/卒業研究リンク.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y24508\Documents\GitHub\-\GradWork\sosora\R7_卒業研究\0930に向けて\GradWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y24504\Documents\GitHub\sotuken3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BDE2F5-F9FE-4BD9-80AB-089F7ED1C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB8369-2FC0-4FC7-AB07-D805C1793D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4C113A67-3032-4272-AAE7-508F55C4B7AF}"/>
+    <workbookView xWindow="0" yWindow="216" windowWidth="17316" windowHeight="16344" xr2:uid="{4C113A67-3032-4272-AAE7-508F55C4B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,9 +517,6 @@
     <t>S:\卒業研究\sosora\R7_卒業研究\0930に向けて\パネルPDF\2024　fukumeet.pdf</t>
   </si>
   <si>
-    <t>S:\卒業研究\sosora\R7_卒業研究\0930に向けて\パネルPDF\2024　さんたんさんたん.pdf</t>
-  </si>
-  <si>
     <t>S:\卒業研究\sosora\R7_卒業研究\0930に向けて\パネルPDF\2024　AI専用PC.pdf</t>
   </si>
   <si>
@@ -1841,6 +1838,10 @@
   </si>
   <si>
     <t>S:\卒業研究\sosora\J2010\2010_Manu\22h21cis192126.pdf</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/shuuasasaki/sotukensiryou/main/2024%E3%80%80%E3%81%95%E3%82%93%E3%81%9F%E3%82%93%E3%81%95%E3%82%93%E3%81%9F%E3%82%93.pdf</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2308,7 +2309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4EC5A-4BDA-493E-9CB4-0EE01D8222E9}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2347,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>506</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2365,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>84</v>
@@ -2383,7 +2384,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>83</v>
@@ -2401,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>42</v>
@@ -2419,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>43</v>
@@ -2437,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>44</v>
@@ -2455,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>45</v>
@@ -2473,10 +2474,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>46</v>
@@ -2491,10 +2492,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>47</v>
@@ -2509,10 +2510,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
@@ -2527,10 +2528,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>49</v>
@@ -2545,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>50</v>
@@ -2563,10 +2564,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>51</v>
@@ -2581,10 +2582,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
@@ -2599,10 +2600,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>53</v>
@@ -2617,10 +2618,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
@@ -2635,10 +2636,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>55</v>
@@ -2653,10 +2654,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>56</v>
@@ -2671,10 +2672,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>57</v>
@@ -2689,10 +2690,10 @@
         <v>58</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>60</v>
@@ -2707,10 +2708,10 @@
         <v>59</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>61</v>
@@ -2725,10 +2726,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>62</v>
@@ -2743,10 +2744,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>63</v>
@@ -2761,10 +2762,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>64</v>
@@ -2779,10 +2780,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
@@ -2797,10 +2798,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>66</v>
@@ -2815,10 +2816,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>67</v>
@@ -2833,13 +2834,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2851,10 +2852,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>68</v>
@@ -2869,10 +2870,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>69</v>
@@ -2887,10 +2888,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>70</v>
@@ -2905,10 +2906,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>71</v>
@@ -2923,10 +2924,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>72</v>
@@ -2941,10 +2942,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>73</v>
@@ -2959,10 +2960,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>74</v>
@@ -2977,10 +2978,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>75</v>
@@ -2995,10 +2996,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>76</v>
@@ -3013,10 +3014,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>77</v>
@@ -3031,10 +3032,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>78</v>
@@ -3049,10 +3050,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>79</v>
@@ -3064,10 +3065,10 @@
         <v>2020</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -3075,10 +3076,10 @@
         <v>2018</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -3086,10 +3087,10 @@
         <v>2018</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -3097,10 +3098,10 @@
         <v>2018</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -3108,10 +3109,10 @@
         <v>2018</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -3119,10 +3120,10 @@
         <v>2018</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -3130,10 +3131,10 @@
         <v>2018</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -3141,10 +3142,10 @@
         <v>2018</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -3152,10 +3153,10 @@
         <v>2018</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -3163,10 +3164,10 @@
         <v>2018</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -3174,10 +3175,10 @@
         <v>2018</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -3185,10 +3186,10 @@
         <v>2018</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -3196,10 +3197,10 @@
         <v>2018</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -3207,10 +3208,10 @@
         <v>2018</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -3218,10 +3219,10 @@
         <v>2018</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -3229,10 +3230,10 @@
         <v>2018</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -3240,10 +3241,10 @@
         <v>2018</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -3251,10 +3252,10 @@
         <v>2018</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -3262,10 +3263,10 @@
         <v>2018</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -3273,10 +3274,10 @@
         <v>2018</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -3284,10 +3285,10 @@
         <v>2018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -3295,10 +3296,10 @@
         <v>2018</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -3306,10 +3307,10 @@
         <v>2017</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -3317,10 +3318,10 @@
         <v>2017</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -3328,10 +3329,10 @@
         <v>2017</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -3339,10 +3340,10 @@
         <v>2017</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -3350,10 +3351,10 @@
         <v>2017</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -3361,10 +3362,10 @@
         <v>2017</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -3372,10 +3373,10 @@
         <v>2017</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -3383,10 +3384,10 @@
         <v>2017</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -3394,10 +3395,10 @@
         <v>2017</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -3405,10 +3406,10 @@
         <v>2017</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -3416,10 +3417,10 @@
         <v>2017</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -3427,10 +3428,10 @@
         <v>2017</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -3438,10 +3439,10 @@
         <v>2017</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -3449,10 +3450,10 @@
         <v>2017</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -3460,10 +3461,10 @@
         <v>2017</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -3471,10 +3472,10 @@
         <v>2017</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -3482,10 +3483,10 @@
         <v>2017</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -3493,10 +3494,10 @@
         <v>2017</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -3504,10 +3505,10 @@
         <v>2017</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -3515,10 +3516,10 @@
         <v>2016</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -3526,10 +3527,10 @@
         <v>2016</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -3537,10 +3538,10 @@
         <v>2016</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -3548,10 +3549,10 @@
         <v>2016</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -3559,10 +3560,10 @@
         <v>2016</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -3570,10 +3571,10 @@
         <v>2016</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -3581,10 +3582,10 @@
         <v>2016</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -3592,10 +3593,10 @@
         <v>2016</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -3603,10 +3604,10 @@
         <v>2016</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -3614,10 +3615,10 @@
         <v>2016</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -3625,10 +3626,10 @@
         <v>2016</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -3636,10 +3637,10 @@
         <v>2016</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -3647,10 +3648,10 @@
         <v>2016</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -3658,10 +3659,10 @@
         <v>2016</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -3669,10 +3670,10 @@
         <v>2016</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -3680,10 +3681,10 @@
         <v>2016</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -3691,10 +3692,10 @@
         <v>2015</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -3702,10 +3703,10 @@
         <v>2015</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -3713,10 +3714,10 @@
         <v>2015</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -3724,10 +3725,10 @@
         <v>2015</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -3735,10 +3736,10 @@
         <v>2015</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -3746,10 +3747,10 @@
         <v>2015</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -3757,10 +3758,10 @@
         <v>2015</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -3768,10 +3769,10 @@
         <v>2015</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -3779,10 +3780,10 @@
         <v>2015</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -3790,10 +3791,10 @@
         <v>2015</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -3801,10 +3802,10 @@
         <v>2015</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -3812,10 +3813,10 @@
         <v>2015</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -3823,10 +3824,10 @@
         <v>2015</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -3834,10 +3835,10 @@
         <v>2015</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -3845,10 +3846,10 @@
         <v>2015</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -3856,10 +3857,10 @@
         <v>2015</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -3867,10 +3868,10 @@
         <v>2015</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -3878,10 +3879,10 @@
         <v>2014</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -3889,10 +3890,10 @@
         <v>2014</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -3900,10 +3901,10 @@
         <v>2014</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -3911,10 +3912,10 @@
         <v>2014</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -3922,10 +3923,10 @@
         <v>2014</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -3933,10 +3934,10 @@
         <v>2014</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -3944,10 +3945,10 @@
         <v>2014</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -3955,10 +3956,10 @@
         <v>2014</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -3966,10 +3967,10 @@
         <v>2014</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -3977,10 +3978,10 @@
         <v>2014</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -3988,10 +3989,10 @@
         <v>2014</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -3999,10 +4000,10 @@
         <v>2014</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -4010,10 +4011,10 @@
         <v>2014</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -4021,10 +4022,10 @@
         <v>2014</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -4032,10 +4033,10 @@
         <v>2014</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -4043,10 +4044,10 @@
         <v>2014</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -4054,10 +4055,10 @@
         <v>2014</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -4065,10 +4066,10 @@
         <v>2014</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -4076,10 +4077,10 @@
         <v>2014</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -4087,10 +4088,10 @@
         <v>2014</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -4098,10 +4099,10 @@
         <v>2014</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -4109,10 +4110,10 @@
         <v>2014</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -4120,10 +4121,10 @@
         <v>2014</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -4131,10 +4132,10 @@
         <v>2013</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -4142,10 +4143,10 @@
         <v>2013</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -4153,10 +4154,10 @@
         <v>2013</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -4164,10 +4165,10 @@
         <v>2013</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -4175,10 +4176,10 @@
         <v>2013</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -4186,10 +4187,10 @@
         <v>2013</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -4197,10 +4198,10 @@
         <v>2013</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -4208,10 +4209,10 @@
         <v>2013</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -4219,10 +4220,10 @@
         <v>2013</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -4230,10 +4231,10 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -4241,10 +4242,10 @@
         <v>2013</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -4252,10 +4253,10 @@
         <v>2013</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -4263,10 +4264,10 @@
         <v>2013</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -4274,10 +4275,10 @@
         <v>2013</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -4285,10 +4286,10 @@
         <v>2013</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -4296,10 +4297,10 @@
         <v>2013</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
@@ -4307,10 +4308,10 @@
         <v>2013</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
@@ -4318,10 +4319,10 @@
         <v>2012</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -4329,10 +4330,10 @@
         <v>2012</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -4340,10 +4341,10 @@
         <v>2012</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -4351,10 +4352,10 @@
         <v>2012</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -4362,10 +4363,10 @@
         <v>2012</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -4373,10 +4374,10 @@
         <v>2012</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -4384,10 +4385,10 @@
         <v>2012</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -4395,10 +4396,10 @@
         <v>2012</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -4406,10 +4407,10 @@
         <v>2012</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -4417,10 +4418,10 @@
         <v>2012</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -4428,10 +4429,10 @@
         <v>2012</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -4439,10 +4440,10 @@
         <v>2012</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -4450,10 +4451,10 @@
         <v>2012</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -4461,10 +4462,10 @@
         <v>2012</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -4472,10 +4473,10 @@
         <v>2012</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -4483,10 +4484,10 @@
         <v>2012</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -4494,10 +4495,10 @@
         <v>2012</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -4505,10 +4506,10 @@
         <v>2012</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
@@ -4516,10 +4517,10 @@
         <v>2011</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -4527,10 +4528,10 @@
         <v>2011</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -4538,10 +4539,10 @@
         <v>2011</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -4549,10 +4550,10 @@
         <v>2011</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -4560,10 +4561,10 @@
         <v>2011</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -4571,10 +4572,10 @@
         <v>2011</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -4582,10 +4583,10 @@
         <v>2011</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -4593,10 +4594,10 @@
         <v>2011</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -4604,10 +4605,10 @@
         <v>2011</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -4615,10 +4616,10 @@
         <v>2011</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -4626,10 +4627,10 @@
         <v>2011</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -4637,10 +4638,10 @@
         <v>2011</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -4648,10 +4649,10 @@
         <v>2011</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -4659,10 +4660,10 @@
         <v>2011</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -4670,10 +4671,10 @@
         <v>2011</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -4681,10 +4682,10 @@
         <v>2011</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -4692,10 +4693,10 @@
         <v>2011</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -4703,10 +4704,10 @@
         <v>2011</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -4714,10 +4715,10 @@
         <v>2011</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -4725,10 +4726,10 @@
         <v>2011</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -4736,10 +4737,10 @@
         <v>2010</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -4747,10 +4748,10 @@
         <v>2010</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -4758,10 +4759,10 @@
         <v>2010</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -4769,10 +4770,10 @@
         <v>2010</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -4780,10 +4781,10 @@
         <v>2010</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -4791,10 +4792,10 @@
         <v>2010</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -4802,10 +4803,10 @@
         <v>2010</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -4813,10 +4814,10 @@
         <v>2010</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -4824,10 +4825,10 @@
         <v>2010</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -4835,10 +4836,10 @@
         <v>2010</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -4846,10 +4847,10 @@
         <v>2010</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -4857,10 +4858,10 @@
         <v>2010</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -4868,10 +4869,10 @@
         <v>2010</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -4879,10 +4880,10 @@
         <v>2010</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -4890,10 +4891,10 @@
         <v>2010</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -4901,10 +4902,10 @@
         <v>2010</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -4912,10 +4913,10 @@
         <v>2010</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -4923,10 +4924,10 @@
         <v>2010</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -4934,10 +4935,10 @@
         <v>2010</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -4945,10 +4946,10 @@
         <v>2010</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -4956,10 +4957,10 @@
         <v>2010</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -4967,10 +4968,10 @@
         <v>2010</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -5017,258 +5018,258 @@
     <hyperlink ref="E41" r:id="rId39" xr:uid="{630E6180-A1ED-450C-8761-894D34123C62}"/>
     <hyperlink ref="D4" r:id="rId40" xr:uid="{5C961DA3-F58C-4B57-A0E8-55714E6567F2}"/>
     <hyperlink ref="D3" r:id="rId41" xr:uid="{8DE56FDD-EC91-4E20-9491-7091A793287B}"/>
-    <hyperlink ref="D2" r:id="rId42" xr:uid="{957AF716-6BC0-421A-AEDD-C624B901C67A}"/>
-    <hyperlink ref="D5" r:id="rId43" xr:uid="{0FD4529E-531F-4798-A218-C6243DBF6B7F}"/>
-    <hyperlink ref="D6" r:id="rId44" xr:uid="{B7625554-3F39-4A44-9B49-6C895F39A314}"/>
-    <hyperlink ref="D7" r:id="rId45" xr:uid="{B044809F-3681-4C83-9A49-C8218304CBCA}"/>
-    <hyperlink ref="D8" r:id="rId46" xr:uid="{2DC04E41-C262-43DB-AAF7-B9477E372905}"/>
-    <hyperlink ref="D9" r:id="rId47" xr:uid="{493CFBF9-6FBB-4A47-8977-9A69DA71E3A2}"/>
-    <hyperlink ref="D10" r:id="rId48" xr:uid="{A03A7917-BD75-4323-A274-02F5B7D12466}"/>
-    <hyperlink ref="D11" r:id="rId49" xr:uid="{39765542-757D-47C8-B570-9C532C4DCD27}"/>
-    <hyperlink ref="D12" r:id="rId50" xr:uid="{E0EA7177-5AB6-4230-83E8-5D243E47F0FA}"/>
-    <hyperlink ref="D13" r:id="rId51" xr:uid="{C0E1D0CF-67CB-4F70-B4DB-1A44A0BF2745}"/>
-    <hyperlink ref="D14" r:id="rId52" xr:uid="{3D5B3C95-9746-494D-9527-097CFE1417B8}"/>
-    <hyperlink ref="D15" r:id="rId53" xr:uid="{9DA24E97-762F-4EDB-92C6-8C66ABCA0506}"/>
-    <hyperlink ref="D16" r:id="rId54" xr:uid="{3D7E843C-617F-4F79-A46D-4FA3F25ABD2D}"/>
-    <hyperlink ref="D17" r:id="rId55" xr:uid="{88B37BA9-6CF8-4B18-8734-AA6841D5FCFB}"/>
-    <hyperlink ref="D18" r:id="rId56" xr:uid="{262E8CEE-E418-4020-83EC-EE30F12C4084}"/>
-    <hyperlink ref="D19" r:id="rId57" xr:uid="{0337B7EE-773C-403E-8028-CDE549B87975}"/>
-    <hyperlink ref="D20" r:id="rId58" xr:uid="{278C8D33-376E-441C-BAF7-981B5C9D69FC}"/>
-    <hyperlink ref="D21" r:id="rId59" xr:uid="{B8EB91EE-78D3-4B71-B51C-200E6D05D31A}"/>
-    <hyperlink ref="D22" r:id="rId60" xr:uid="{D6F68DE5-1C8B-4D92-83BC-50C4DF2AD6A2}"/>
-    <hyperlink ref="D23" r:id="rId61" xr:uid="{5998BA64-303B-40CB-B1A7-129C29F2EE21}"/>
-    <hyperlink ref="D24" r:id="rId62" xr:uid="{B112AFFB-9B1B-44A7-B546-27A7844B20D2}"/>
-    <hyperlink ref="D25" r:id="rId63" xr:uid="{CBD60D44-B0E8-408F-BB4A-E5CFD7F8465C}"/>
-    <hyperlink ref="D26" r:id="rId64" xr:uid="{31814149-E243-40B5-A74B-CB845306E880}"/>
-    <hyperlink ref="D27" r:id="rId65" xr:uid="{402A8FAF-300D-481D-91B9-52FF7187933A}"/>
-    <hyperlink ref="D28" r:id="rId66" xr:uid="{763366E1-0121-427F-BF5D-5DD4123083CF}"/>
-    <hyperlink ref="D29" r:id="rId67" xr:uid="{82CA7C47-06DA-40BA-91F6-42D20346B75A}"/>
-    <hyperlink ref="D30" r:id="rId68" xr:uid="{FA4A7FC4-F747-42A6-92F8-B091DB4E9D62}"/>
-    <hyperlink ref="D31" r:id="rId69" xr:uid="{F8F0BD5A-E56D-4278-B082-C32346226197}"/>
-    <hyperlink ref="D32" r:id="rId70" xr:uid="{8361F8A8-473F-4463-BF7C-8E7FD33FB3FA}"/>
-    <hyperlink ref="D33" r:id="rId71" xr:uid="{6159D793-3814-4001-AD33-60592ED56B21}"/>
-    <hyperlink ref="D34" r:id="rId72" xr:uid="{9687E362-D786-450A-A5A5-BADB04F99003}"/>
-    <hyperlink ref="D35" r:id="rId73" xr:uid="{CB60029D-0B5A-4CD5-88CB-37F73AB138BB}"/>
-    <hyperlink ref="D36" r:id="rId74" xr:uid="{112B192A-5ADC-4384-A07B-900DDB82FA88}"/>
-    <hyperlink ref="D37" r:id="rId75" xr:uid="{8C42F150-3A80-4CF0-8558-87091EB57B89}"/>
-    <hyperlink ref="D38" r:id="rId76" xr:uid="{589F67A7-0040-4AEA-9DCA-0069EB8BEA92}"/>
-    <hyperlink ref="D39" r:id="rId77" xr:uid="{E0D4054D-ADA1-4F87-AF31-41BFA0F36E18}"/>
-    <hyperlink ref="D40" r:id="rId78" xr:uid="{DE25F89B-37BE-434F-8519-6B8142900807}"/>
-    <hyperlink ref="D41" r:id="rId79" xr:uid="{E38620F8-824C-4CA9-85FA-695F8CE17332}"/>
-    <hyperlink ref="C43" r:id="rId80" display="S:\卒業研究\sosora\J2019\2019_Manu\01_Unityを使ったゲームの作成.pdf" xr:uid="{E9CD835F-6A34-443E-9EB6-925CE050681C}"/>
-    <hyperlink ref="C44" r:id="rId81" display="S:\卒業研究\sosora\J2019\2019_Manu\02_ARMeasureを使った距離測定iOSアプリ.pdf" xr:uid="{1E38916D-185D-44EA-A6EA-81AEC36FCCD3}"/>
-    <hyperlink ref="C45" r:id="rId82" display="S:\卒業研究\sosora\J2019\2019_Manu\03_AIスピーカーを活用した遠隔スイッチ操作.pdf" xr:uid="{7CF5B855-2A23-4D99-9062-D1A6998DB007}"/>
-    <hyperlink ref="C46" r:id="rId83" display="S:\卒業研究\sosora\J2019\2019_Manu\04_数学学習システムにおける手書き入力文字の認識.pdf" xr:uid="{5C142386-0021-43DF-809A-38A33B4E7A47}"/>
-    <hyperlink ref="C47" r:id="rId84" display="S:\卒業研究\sosora\J2019\2019_Manu\05_AIを使った自然言語処理の研究.pdf" xr:uid="{0E55F681-31F3-491B-89C0-98FD3BFF4D98}"/>
-    <hyperlink ref="E29" r:id="rId85" xr:uid="{35013B62-2236-43C4-8953-4068E150894E}"/>
-    <hyperlink ref="C48" r:id="rId86" display="S:\卒業研究\sosora\J2019\2019_Manu\06_RSSを活用したトレンド表示の研究.pdf" xr:uid="{2FEDDF97-FAEC-4D75-83F2-645759CD58D0}"/>
-    <hyperlink ref="C49" r:id="rId87" display="S:\卒業研究\sosora\J2019\2019_Manu\07_Raspberry Piを用いたロボットカー制御の研究.pdf" xr:uid="{3F8EC4F6-333F-4EAA-80A7-F8ED31CA1D4F}"/>
-    <hyperlink ref="C50" r:id="rId88" display="S:\卒業研究\sosora\J2019\2019_Manu\08_ニューラルネットワークを用いた数字認識の研究.pdf" xr:uid="{CD3A3BAA-8ADE-4C7E-8CC4-EB33D6DE6D99}"/>
-    <hyperlink ref="C51" r:id="rId89" display="S:\卒業研究\sosora\J2019\2019_Manu\09_音楽ゲーム「GAT]の作成.pdf" xr:uid="{55B5893E-66F5-44B7-85E8-5A8DFEF97D4D}"/>
-    <hyperlink ref="C52" r:id="rId90" display="S:\卒業研究\sosora\J2019\2019_Manu\10_ESP32を用いたIoT調理鍋の製作.pdf" xr:uid="{A06FEEA3-23EC-445C-A69E-C1528099F1AA}"/>
-    <hyperlink ref="C53" r:id="rId91" display="S:\卒業研究\sosora\J2019\2019_Manu\11_ARを用いた楽園祭用スタンプラリーアプリの作成.pdf" xr:uid="{1701F540-F831-4C85-9B02-A24332AAD2C9}"/>
-    <hyperlink ref="C54" r:id="rId92" display="S:\卒業研究\sosora\J2019\2019_Manu\12_CNNによる顔の彫りの深さを判定するアプリの作成.pdf" xr:uid="{87175C1E-6F9D-497C-B82C-E5B9CCBB521C}"/>
-    <hyperlink ref="C55" r:id="rId93" display="S:\卒業研究\sosora\J2019\2019_Manu\13_卒業研究DB管理システムの作成.pdf" xr:uid="{81541A4A-829E-4997-805F-565FBE349349}"/>
-    <hyperlink ref="C56" r:id="rId94" display="S:\卒業研究\sosora\J2019\2019_Manu\14_デジタルエフェクターの作成.pdf" xr:uid="{9C60A64F-B93C-49E4-AB5C-1484A48986DA}"/>
-    <hyperlink ref="C57" r:id="rId95" display="S:\卒業研究\sosora\J2019\2019_Manu\15_入力デバイスに水を用いて音と光を出力するシステムの製作.pdf" xr:uid="{F63A9DB3-5C50-49B8-9E3D-EDC857CBFE70}"/>
-    <hyperlink ref="C58" r:id="rId96" display="S:\卒業研究\sosora\J2019\2019_Manu\16_SuperColliderによる音響生成システムの製作.pdf" xr:uid="{5042C3D6-EFB1-4148-AD66-652986292F1B}"/>
-    <hyperlink ref="C59" r:id="rId97" display="S:\卒業研究\sosora\J2019\2019_Manu\17_自動作曲システム.pdf" xr:uid="{7F05533D-57D1-4D98-8CCC-0B0CCAF611B3}"/>
-    <hyperlink ref="C60" r:id="rId98" display="S:\卒業研究\sosora\J2019\2019_Manu\18_フリーマーケットサイトの作成 .pdf" xr:uid="{71C3F926-1A36-46F9-A263-6D03FCBE7DE4}"/>
-    <hyperlink ref="C61" r:id="rId99" display="S:\卒業研究\sosora\J2019\2019_Manu\19_学園祭会計管理システムの作成.pdf" xr:uid="{FBC73443-E024-43E0-BD0B-DE2325DEED5F}"/>
-    <hyperlink ref="C62" r:id="rId100" display="S:\卒業研究\sosora\J2019\2019_Manu\20_球技大会支援システムの作成.pdf" xr:uid="{BA422F7F-97E3-4A3D-8929-FA0BA18258F3}"/>
-    <hyperlink ref="C63" r:id="rId101" display="S:\卒業研究\sosora\J2019\2019_Manu\21_Unityを用いた子供向けAR作品の作成.pdf" xr:uid="{B4B806F7-2451-41B5-A0F3-E91B252CA102}"/>
-    <hyperlink ref="C64" r:id="rId102" display="S:\卒業研究\sosora\J2018\2018_Manu\01Twitterのクライアントアプリ.pdf" xr:uid="{9A708729-AF6A-4C50-AF09-DCAFAA7FF3F9}"/>
-    <hyperlink ref="C65" r:id="rId103" display="S:\卒業研究\sosora\J2018\2018_Manu\02LINEのMessaging APIを用いた防犯システムの作成.pdf" xr:uid="{49AEA610-B53C-4C35-8B6C-92807C1E15BA}"/>
-    <hyperlink ref="C67" r:id="rId104" display="S:\卒業研究\sosora\J2018\2018_Manu\04Raspberry Piを用いた自動施錠する棚の製作.pdf" xr:uid="{F46396FD-5212-4BA6-8310-7320DFBC1E4C}"/>
-    <hyperlink ref="C68" r:id="rId105" display="S:\卒業研究\sosora\J2018\2018_Manu\05画像投影を用いたデータ伝送教材の製作.pdf" xr:uid="{A6500816-E4B7-4C3B-BAE1-590AD84A5B79}"/>
-    <hyperlink ref="C69" r:id="rId106" display="S:\卒業研究\sosora\J2018\2018_Manu\06JavaScriptを用いた画像編集Webアプリケーション.pdf" xr:uid="{55260887-0F1A-425E-889B-7D22713E067C}"/>
-    <hyperlink ref="C70" r:id="rId107" display="S:\卒業研究\sosora\J2018\2018_Manu\07フリーマーケットサイトの作成.pdf" xr:uid="{B801923C-44E0-45CC-B787-42138D0ACC45}"/>
-    <hyperlink ref="C71" r:id="rId108" display="S:\卒業研究\sosora\J2018\2018_Manu\08PHPを利用した映画記録システムの作成.pdf" xr:uid="{46B3B985-78F7-4E82-A6B4-A3D489491A8D}"/>
-    <hyperlink ref="C72" r:id="rId109" display="S:\卒業研究\sosora\J2018\2018_Manu\09RFIDを用いた出席確認システム.pdf" xr:uid="{4274D125-A0DE-4902-A018-65F1CB2240FE}"/>
-    <hyperlink ref="C73" r:id="rId110" display="S:\卒業研究\sosora\J2018\2018_Manu\10LeapMotionによる文字入力システムの改良.pdf" xr:uid="{1893B04A-7011-48A7-88DA-E62AC7DE7005}"/>
-    <hyperlink ref="C74" r:id="rId111" display="S:\卒業研究\sosora\J2018\2018_Manu\11技能五輪メカトロニクス職種の取り組みについて.pdf" xr:uid="{5703361D-984B-4E35-8E9B-355D792CD054}"/>
-    <hyperlink ref="C75" r:id="rId112" display="S:\卒業研究\sosora\J2018\2018_Manu\12PureDataを用いた自動作曲システムの製作.pdf" xr:uid="{56126796-5731-46BE-AFBB-CF72ED8200C5}"/>
-    <hyperlink ref="C76" r:id="rId113" display="S:\卒業研究\sosora\J2018\2018_Manu\13子供向け教材作成によるScratchの活用研究.pdf" xr:uid="{3E2A2A19-9C42-4170-8E47-1BBFAD3E87F9}"/>
-    <hyperlink ref="C77" r:id="rId114" display="S:\卒業研究\sosora\J2018\2018_Manu\14機械学習を使った人狼AIの作成.pdf" xr:uid="{E3EBC5C1-24E1-40EE-8FC5-EA6336D5782D}"/>
-    <hyperlink ref="C78" r:id="rId115" display="S:\卒業研究\sosora\J2018\2018_Manu\15複数人で遊べるペイントツール製作.pdf" xr:uid="{F701B856-F493-424E-99BE-97293101A1FA}"/>
-    <hyperlink ref="C79" r:id="rId116" display="S:\卒業研究\sosora\J2018\2018_Manu\16入力デバイスに水を用いて音を出力・制御する楽器の製作.pdf" xr:uid="{B27A6EAF-4FD6-4DE2-B65E-4E152486F0CA}"/>
-    <hyperlink ref="C80" r:id="rId117" display="S:\卒業研究\sosora\J2018\2018_Manu\17加速度センサを用いたウェアラブル端末の作成 .pdf" xr:uid="{44BA935E-CE23-4DC1-8EAA-E9030EDB89DF}"/>
-    <hyperlink ref="C81" r:id="rId118" display="S:\卒業研究\sosora\J2018\2018_Manu\18Arduinoを使用してテーブルのバランスをとり、自走する装置の作成.pdf" xr:uid="{96D2DD32-2155-4836-90FC-1421F89D967D}"/>
-    <hyperlink ref="C82" r:id="rId119" display="S:\卒業研究\sosora\J2018\2018_Manu\19不適切画像フィルタリングシステムの作成.pdf" xr:uid="{CECE36C9-0DA8-4168-945D-8111E88019CA}"/>
-    <hyperlink ref="C116" r:id="rId120" xr:uid="{FAE30C6D-2B02-43DC-8275-7BCAFC2B39A9}"/>
-    <hyperlink ref="C117" r:id="rId121" xr:uid="{ADEF78AA-D44C-4684-A646-D1C48BF278D4}"/>
-    <hyperlink ref="C118" r:id="rId122" xr:uid="{0F86DFBF-FC66-40D2-B0FE-8FBCD4C105D5}"/>
-    <hyperlink ref="C119" r:id="rId123" xr:uid="{590C0AE3-69DB-4594-99CA-91D94DCF4580}"/>
-    <hyperlink ref="C120" r:id="rId124" xr:uid="{D2FB0EF8-1B5A-4C9E-A3EB-FC4CD2378F05}"/>
-    <hyperlink ref="C121" r:id="rId125" xr:uid="{9C52B397-FDE6-42C9-9A46-BB949C60D76E}"/>
-    <hyperlink ref="C122" r:id="rId126" xr:uid="{E9E93FB2-E227-4CF1-A355-C591352352F1}"/>
-    <hyperlink ref="C123" r:id="rId127" xr:uid="{9C22684C-33CA-4901-8CC3-BA44A3FD40E7}"/>
-    <hyperlink ref="C124" r:id="rId128" xr:uid="{27E653C1-964A-45B1-8C70-04A45178A491}"/>
-    <hyperlink ref="C125" r:id="rId129" xr:uid="{C7C34EE8-9A5E-4A59-9127-092843FE2AEF}"/>
-    <hyperlink ref="C126" r:id="rId130" xr:uid="{600D6D20-013B-4978-894B-BFCF9D9E556E}"/>
-    <hyperlink ref="C127" r:id="rId131" xr:uid="{51DF9893-FBC1-497A-BFBA-F2B6E8238549}"/>
-    <hyperlink ref="C128" r:id="rId132" xr:uid="{21C587D6-1CB8-46DB-BBE8-E3A9DCE92B53}"/>
-    <hyperlink ref="C129" r:id="rId133" xr:uid="{062299D8-399D-488F-8F20-4CE4A9A4817D}"/>
-    <hyperlink ref="C130" r:id="rId134" xr:uid="{63BD29C7-30D6-4AEB-AA38-BC2BF76A0D0C}"/>
-    <hyperlink ref="C131" r:id="rId135" xr:uid="{8DEE2C89-7D07-4DB6-A7E5-8834D6C7FF1F}"/>
-    <hyperlink ref="C132" r:id="rId136" xr:uid="{34AC601D-EEB3-4189-9407-97A273C7E6F9}"/>
-    <hyperlink ref="C134" r:id="rId137" xr:uid="{D48AF1E1-E79E-48EB-AC04-6D6425851B41}"/>
-    <hyperlink ref="C133" r:id="rId138" xr:uid="{BECA58D5-D708-46A7-B673-E728021BBEDD}"/>
-    <hyperlink ref="C135" r:id="rId139" xr:uid="{1767FAD4-8C88-44BB-AEBC-924C16022A22}"/>
-    <hyperlink ref="C136" r:id="rId140" xr:uid="{F51F02C2-110E-45CA-B8BF-1B67AB892D2C}"/>
-    <hyperlink ref="C137" r:id="rId141" xr:uid="{8997B153-542D-42BF-B1D7-B9207E0F27B1}"/>
-    <hyperlink ref="C138" r:id="rId142" xr:uid="{0E9445FE-F07E-45DE-BAD2-E60BF6CB5432}"/>
-    <hyperlink ref="C2" r:id="rId143" xr:uid="{0631CECD-0A42-43A1-8160-C8FF01F04B5D}"/>
-    <hyperlink ref="C83" r:id="rId144" xr:uid="{56151E7F-74CF-41B1-AD5D-FD053A8A3782}"/>
-    <hyperlink ref="C84" r:id="rId145" xr:uid="{B373E675-8CB3-4BBE-85C1-86A555AD688E}"/>
-    <hyperlink ref="C3" r:id="rId146" xr:uid="{16F2A626-DA7C-47A6-A54C-2485CE1F859B}"/>
-    <hyperlink ref="C4" r:id="rId147" xr:uid="{A2A49B00-5CF0-499E-9DA1-8FEBFDCC3796}"/>
-    <hyperlink ref="C6" r:id="rId148" xr:uid="{CB0CECA5-D5A9-4C1D-93C7-F28D3B5FCC8D}"/>
-    <hyperlink ref="C5" r:id="rId149" xr:uid="{6568B755-5D9D-4BC9-89C9-5F4022C6C340}"/>
-    <hyperlink ref="C7" r:id="rId150" xr:uid="{B3B06D18-0F97-4206-8FA3-D3788575ECD4}"/>
-    <hyperlink ref="C8" r:id="rId151" xr:uid="{611E44CD-75AC-4A16-854D-3B19E2A1A7A6}"/>
-    <hyperlink ref="C9" r:id="rId152" xr:uid="{F12F4C1B-DEE3-4CD8-8823-A624CB93C78F}"/>
-    <hyperlink ref="C10" r:id="rId153" xr:uid="{4DAF38D8-D49A-4CD3-9A8F-D997F7915926}"/>
-    <hyperlink ref="C11" r:id="rId154" xr:uid="{B37EC5CF-F773-495A-9C99-D55D5F591496}"/>
-    <hyperlink ref="C12" r:id="rId155" xr:uid="{E696E7E1-3FD9-4352-BE52-309D04A837AD}"/>
-    <hyperlink ref="C13" r:id="rId156" xr:uid="{27074A8E-C282-46CE-A375-9F5B48FDF0CB}"/>
-    <hyperlink ref="C14" r:id="rId157" xr:uid="{AEFEC61E-03D4-4D56-92BA-DA8A22BA100D}"/>
-    <hyperlink ref="C15" r:id="rId158" xr:uid="{DE8E97B1-C587-4FA9-A89F-C82282085E5E}"/>
-    <hyperlink ref="C16" r:id="rId159" xr:uid="{E0ECEDEC-8B78-44B1-BF8B-0A9EB761288E}"/>
-    <hyperlink ref="C17" r:id="rId160" xr:uid="{78B32A5F-C55B-40E5-963E-DB0B4C9FFC63}"/>
-    <hyperlink ref="C18" r:id="rId161" xr:uid="{44680998-7FF9-4979-9796-1DC20B2B0854}"/>
-    <hyperlink ref="C19" r:id="rId162" xr:uid="{B40FB595-6E26-4A42-B316-BDB477A03FD6}"/>
-    <hyperlink ref="C20" r:id="rId163" xr:uid="{7E13B583-6704-48F3-9DEC-4FC2139A7C18}"/>
-    <hyperlink ref="C21" r:id="rId164" xr:uid="{BA625B9C-30CD-4AC6-AE62-073C71029E5E}"/>
-    <hyperlink ref="C22" r:id="rId165" xr:uid="{510F8704-3893-4886-AC91-AF593643D641}"/>
-    <hyperlink ref="C23" r:id="rId166" xr:uid="{37F13444-721D-4936-9A7B-132CA64B2B70}"/>
-    <hyperlink ref="C24" r:id="rId167" xr:uid="{D8EB87C0-F371-48AA-8DB1-96CF4A95686B}"/>
-    <hyperlink ref="C25" r:id="rId168" xr:uid="{5121BDA2-47A7-4CDA-B5FD-F5213E7D60D9}"/>
-    <hyperlink ref="C26" r:id="rId169" xr:uid="{00894BAA-6111-4200-9DD6-0EB24C274F8E}"/>
-    <hyperlink ref="C27" r:id="rId170" xr:uid="{7BB48A38-589A-425F-B854-4C87D7F00777}"/>
-    <hyperlink ref="C42" r:id="rId171" display="S:\卒業研究\sosora\J2020_mada\05 VRコンテンツの製作.pdf" xr:uid="{B9026836-65FB-4F6B-B4AC-2FCAD974FE19}"/>
-    <hyperlink ref="C85" r:id="rId172" xr:uid="{2153DB15-217C-4E38-8D69-58F715EF2278}"/>
-    <hyperlink ref="C86" r:id="rId173" xr:uid="{35B9F540-465D-407C-BDBD-36B81C7B6C16}"/>
-    <hyperlink ref="C87" r:id="rId174" xr:uid="{11B63C13-59AD-4E38-9665-7174536FE067}"/>
-    <hyperlink ref="C88" r:id="rId175" xr:uid="{4392FF5A-0D64-437D-9CEE-BCBF58FE1A31}"/>
-    <hyperlink ref="C89" r:id="rId176" xr:uid="{B3E7090B-3CC7-466F-9F1F-15DAE8CB7F90}"/>
-    <hyperlink ref="C90" r:id="rId177" xr:uid="{0CBCA144-8DF6-469D-9314-05A702334F51}"/>
-    <hyperlink ref="C91" r:id="rId178" xr:uid="{8A087E6E-7299-4E29-AC50-7EB1250E38B9}"/>
-    <hyperlink ref="C92" r:id="rId179" xr:uid="{C17E7854-89EB-4B7B-93E1-F68D44AC9B55}"/>
-    <hyperlink ref="C93" r:id="rId180" xr:uid="{A7A7EFCF-1B53-452B-B58C-A96FA106E3D6}"/>
-    <hyperlink ref="C94" r:id="rId181" xr:uid="{83F6F35B-865F-4C55-9D64-65A458519271}"/>
-    <hyperlink ref="C95" r:id="rId182" xr:uid="{7A00D5AD-A783-467B-A8B6-4619A21772AC}"/>
-    <hyperlink ref="C96" r:id="rId183" xr:uid="{31B4472F-0034-40AB-9204-A31D561BC1CF}"/>
-    <hyperlink ref="C97" r:id="rId184" xr:uid="{43F6D6E8-E177-4EA5-AF3F-2454ED0A7BAA}"/>
-    <hyperlink ref="C98" r:id="rId185" xr:uid="{B766E526-FD70-4F7F-A3FD-C4137989DAEE}"/>
-    <hyperlink ref="C139" r:id="rId186" xr:uid="{290A0ACE-47D5-4F2D-ADD9-CABD0A8B6413}"/>
-    <hyperlink ref="C140" r:id="rId187" xr:uid="{210AB6A0-B7F1-4738-81C4-8B15D48B188B}"/>
-    <hyperlink ref="C141" r:id="rId188" xr:uid="{33918344-C01D-4D0E-B51D-70F0B1DD5C06}"/>
-    <hyperlink ref="C142" r:id="rId189" xr:uid="{71FAC53B-5235-4DF7-8A00-DAD9A404C726}"/>
-    <hyperlink ref="C143" r:id="rId190" xr:uid="{36E24B86-E394-44E6-82CC-76EA4F408D1C}"/>
-    <hyperlink ref="C144" r:id="rId191" xr:uid="{A55689B6-AC6D-4245-9503-7990FAC29844}"/>
-    <hyperlink ref="C145" r:id="rId192" xr:uid="{23446FD9-1B5E-4B24-B71B-E3458048F182}"/>
-    <hyperlink ref="C146" r:id="rId193" xr:uid="{0EF61AD4-7A5C-4497-8101-ABD5344BA763}"/>
-    <hyperlink ref="C147" r:id="rId194" xr:uid="{053C2DD3-5F9C-489D-A6D4-68AE80A016B7}"/>
-    <hyperlink ref="C148" r:id="rId195" xr:uid="{179582D7-BBFD-4EF9-B24F-28F19A4D0A9C}"/>
-    <hyperlink ref="C149" r:id="rId196" xr:uid="{3D43FFE3-1475-4344-8A8A-20E9C3668DAB}"/>
-    <hyperlink ref="C150" r:id="rId197" xr:uid="{03894F74-8E49-44BD-9E54-A925BD4C0656}"/>
-    <hyperlink ref="C151" r:id="rId198" xr:uid="{32523279-7856-4D0E-BFF9-A10160ED4A45}"/>
-    <hyperlink ref="C152" r:id="rId199" xr:uid="{8D99CF09-0A04-4D33-AFE9-ABDAC0710795}"/>
-    <hyperlink ref="C153" r:id="rId200" xr:uid="{5B52047C-F9CC-495A-8448-05598DF621E1}"/>
-    <hyperlink ref="C154" r:id="rId201" xr:uid="{6BE7F061-FA5B-476C-9ABA-98E47C262725}"/>
-    <hyperlink ref="C155" r:id="rId202" xr:uid="{EC15B494-E059-4D11-AB6C-51EA08E7DFE2}"/>
-    <hyperlink ref="C99" r:id="rId203" xr:uid="{1C1911FF-2BBD-4D54-BC20-6414A0E3F80D}"/>
-    <hyperlink ref="C100" r:id="rId204" xr:uid="{DC6B62AD-FB86-48DE-B160-18539CA02EE0}"/>
-    <hyperlink ref="C101" r:id="rId205" xr:uid="{D44D2E77-7D77-467E-8569-D7228471C94F}"/>
-    <hyperlink ref="C102" r:id="rId206" xr:uid="{7F978AA7-2D76-4CDB-BD03-A26208C14F0A}"/>
-    <hyperlink ref="C103" r:id="rId207" xr:uid="{A5373DF1-5A0B-4DC0-B734-69080A33FF58}"/>
-    <hyperlink ref="C104" r:id="rId208" xr:uid="{DC94EB75-737C-4527-B029-FCD4A00FC8B9}"/>
-    <hyperlink ref="C105" r:id="rId209" xr:uid="{68385ACF-0615-44B6-9013-9955EB5364A7}"/>
-    <hyperlink ref="C106" r:id="rId210" xr:uid="{ABE1E799-6AEA-4283-933C-AA5CA4821B46}"/>
-    <hyperlink ref="C107" r:id="rId211" xr:uid="{BFE90E19-7FF8-4D68-AEE1-89256993CFB5}"/>
-    <hyperlink ref="C108" r:id="rId212" xr:uid="{4E72AD5E-BFB3-4EE2-9BF2-C4D03C17C5B2}"/>
-    <hyperlink ref="C109" r:id="rId213" xr:uid="{6BA36B8C-EE9E-4AEF-9C71-39060F7ACC2F}"/>
-    <hyperlink ref="C110" r:id="rId214" xr:uid="{91110F9F-13F0-41EB-88BF-1476882A5512}"/>
-    <hyperlink ref="C111" r:id="rId215" xr:uid="{75E06C89-9592-4139-9058-C57F245EA00B}"/>
-    <hyperlink ref="C112" r:id="rId216" xr:uid="{3EA491C9-C4DE-45CE-A75C-DEDCD1D8990F}"/>
-    <hyperlink ref="C113" r:id="rId217" xr:uid="{43EE9C2F-BAFB-4D2F-811E-D6E4E96626DC}"/>
-    <hyperlink ref="C114" r:id="rId218" xr:uid="{BEDA9D76-0232-42D4-A7F3-C47373AAFB7F}"/>
-    <hyperlink ref="C115" r:id="rId219" xr:uid="{93622FC4-684D-4D1C-8613-7BB9DE773715}"/>
-    <hyperlink ref="C28" r:id="rId220" xr:uid="{A3BBAB0C-AF08-4E5B-AFE4-289D86728371}"/>
-    <hyperlink ref="C29" r:id="rId221" xr:uid="{D5C739DD-1A11-41BE-A396-11636D949719}"/>
-    <hyperlink ref="C30" r:id="rId222" xr:uid="{824F2509-834C-4B3E-B65B-44579B12F1E9}"/>
-    <hyperlink ref="C31" r:id="rId223" xr:uid="{4FC1B705-5937-493B-BB5C-D0C651FEDEF7}"/>
-    <hyperlink ref="C32" r:id="rId224" xr:uid="{4DF49E93-4657-4141-8D6C-5FE6C2BFD35B}"/>
-    <hyperlink ref="C33" r:id="rId225" xr:uid="{EDA7CB4E-62F6-4D52-BFF9-86D8944535C0}"/>
-    <hyperlink ref="C34" r:id="rId226" xr:uid="{D95883CA-9945-4717-918F-F8A8B5CBF93F}"/>
-    <hyperlink ref="C35" r:id="rId227" xr:uid="{43A0F118-0EDF-4934-A6C4-9384C4C47DD1}"/>
-    <hyperlink ref="C36" r:id="rId228" xr:uid="{2F44AB91-FBDB-4BB8-B9EE-44EE9B1B080C}"/>
-    <hyperlink ref="C37" r:id="rId229" xr:uid="{CA4D68B3-A4E0-495D-BF39-0DDB3CE44A63}"/>
-    <hyperlink ref="C38" r:id="rId230" xr:uid="{D27D6052-D9B4-404A-BE65-8CC13F09CC56}"/>
-    <hyperlink ref="C39" r:id="rId231" xr:uid="{51B156E4-16F2-42C0-B689-909999BFB4E9}"/>
-    <hyperlink ref="C40" r:id="rId232" xr:uid="{4E760648-E3D5-464F-94B4-F4ED408A66AF}"/>
-    <hyperlink ref="C41" r:id="rId233" xr:uid="{E0CFDDC2-0982-4913-A0F4-87843B321DE9}"/>
-    <hyperlink ref="C156" r:id="rId234" xr:uid="{E4016F46-6419-4AA4-B79E-FE41DEF604C3}"/>
-    <hyperlink ref="C157" r:id="rId235" xr:uid="{2DBEDABD-45CE-4409-985E-DD44104D2CE8}"/>
-    <hyperlink ref="C158" r:id="rId236" xr:uid="{3A8A2516-6604-4E15-9CF0-1FBE795991B7}"/>
-    <hyperlink ref="C159" r:id="rId237" xr:uid="{F3A58F4A-4EC8-4C08-9B61-5A7798BDEF92}"/>
-    <hyperlink ref="C160" r:id="rId238" xr:uid="{F50838DE-4CBA-4F9D-9C91-C47CA3F63FAD}"/>
-    <hyperlink ref="C161" r:id="rId239" xr:uid="{56A6D45E-3D9C-40B2-8764-346799936B10}"/>
-    <hyperlink ref="C162" r:id="rId240" xr:uid="{BCC4EF76-A436-46EA-BFF1-AA92FFED0080}"/>
-    <hyperlink ref="C163" r:id="rId241" xr:uid="{C488F914-F6C8-4E3A-BDC6-3CBBC4F88A60}"/>
-    <hyperlink ref="C164" r:id="rId242" xr:uid="{EA08B0C6-D1AD-488B-9BAA-6A3893AABBDF}"/>
-    <hyperlink ref="C165" r:id="rId243" xr:uid="{A639F9D6-300A-4772-868F-88BC529905A2}"/>
-    <hyperlink ref="C166" r:id="rId244" xr:uid="{FFC96BA5-955C-4C5F-A33F-052EC97E4AE5}"/>
-    <hyperlink ref="C167" r:id="rId245" xr:uid="{128710D8-3F75-4968-AD82-9CA792AC1FAF}"/>
-    <hyperlink ref="C168" r:id="rId246" xr:uid="{DDC2E39A-1B00-42F9-BCB8-A1D2C9E2BE4A}"/>
-    <hyperlink ref="C169" r:id="rId247" xr:uid="{8708D00E-226B-489F-AA5A-74D64B746D69}"/>
-    <hyperlink ref="C170" r:id="rId248" xr:uid="{7772771F-EB76-49DF-BAA4-481AFECCE968}"/>
-    <hyperlink ref="C171" r:id="rId249" xr:uid="{CB99554C-70E9-47D2-A55A-766A83FECC12}"/>
-    <hyperlink ref="C172" r:id="rId250" xr:uid="{012D67C5-4B92-44C0-9637-0F81AE7F559F}"/>
-    <hyperlink ref="C173" r:id="rId251" xr:uid="{C3846581-9756-456F-A7CF-DA58CBCC1ADD}"/>
-    <hyperlink ref="C174" r:id="rId252" xr:uid="{880A5D3A-5EC3-4BEA-BE58-5AA3386A3550}"/>
-    <hyperlink ref="C175" r:id="rId253" xr:uid="{49BF4D64-A044-4300-B44F-1A473049C79A}"/>
-    <hyperlink ref="C176" r:id="rId254" xr:uid="{47039414-807B-47B4-A7A7-6AAED817B81F}"/>
-    <hyperlink ref="C177" r:id="rId255" xr:uid="{B48C8CF7-625A-4B5D-B719-905C9287FB02}"/>
-    <hyperlink ref="C178" r:id="rId256" xr:uid="{B42B8516-0931-4D5B-A630-54699A889D2D}"/>
-    <hyperlink ref="C179" r:id="rId257" xr:uid="{CE48CB8D-DFD7-4279-9F3B-35115BE2DC96}"/>
-    <hyperlink ref="C180" r:id="rId258" xr:uid="{A87247CB-044D-441A-8A80-1EAFAB8ED766}"/>
-    <hyperlink ref="C181" r:id="rId259" xr:uid="{B4296E68-44CD-4683-B539-1DC3729E8AB3}"/>
-    <hyperlink ref="C182" r:id="rId260" xr:uid="{AF6F0362-5D7E-44C9-87D6-10F75828C53E}"/>
-    <hyperlink ref="C183" r:id="rId261" xr:uid="{BCAFD455-98B4-4B02-9563-6CBD8EEBDA3B}"/>
-    <hyperlink ref="C184" r:id="rId262" xr:uid="{D2CDAACF-0DE1-43FA-9273-E23487BE57F7}"/>
-    <hyperlink ref="C185" r:id="rId263" xr:uid="{5C220C44-236E-46F6-8407-21EA8A58C85D}"/>
-    <hyperlink ref="C186" r:id="rId264" xr:uid="{68453A57-1C90-4854-86A5-E83977529E58}"/>
-    <hyperlink ref="C187" r:id="rId265" xr:uid="{2162A613-A399-4FA3-BF17-7E3F69CE1DE9}"/>
-    <hyperlink ref="C188" r:id="rId266" xr:uid="{F776EDA6-B1A3-435B-B275-2F2DB94B4BAE}"/>
-    <hyperlink ref="C189" r:id="rId267" xr:uid="{80BCD02B-DAF4-47D6-A105-0CEE634631D3}"/>
-    <hyperlink ref="C190" r:id="rId268" xr:uid="{909B2D36-F87A-456F-9AAB-E3EA5ED98070}"/>
-    <hyperlink ref="C191" r:id="rId269" xr:uid="{F44D2AF3-239B-4483-ABBE-8859F71F69BC}"/>
-    <hyperlink ref="C192" r:id="rId270" xr:uid="{64D08B17-3C81-475B-BC7B-A715658E28FD}"/>
-    <hyperlink ref="C193" r:id="rId271" xr:uid="{D0302647-5843-44B6-BF08-71E0F8639B56}"/>
-    <hyperlink ref="C194" r:id="rId272" xr:uid="{82839214-CF58-489E-9461-20E413BEC015}"/>
-    <hyperlink ref="C195" r:id="rId273" xr:uid="{4628FE7A-F5BD-4F77-8ED2-19DECCBF1CE1}"/>
-    <hyperlink ref="C196" r:id="rId274" xr:uid="{CD5432F0-C413-4965-941A-18078B9631EE}"/>
-    <hyperlink ref="C197" r:id="rId275" xr:uid="{735A20FE-06D7-4E92-A5E0-B31D15FCA8F3}"/>
-    <hyperlink ref="C198" r:id="rId276" xr:uid="{3DA15385-5FFC-4212-869C-60204D73053C}"/>
-    <hyperlink ref="C199" r:id="rId277" xr:uid="{16BFE1A5-41A3-4818-B26B-5357BA17C19F}"/>
-    <hyperlink ref="C200" r:id="rId278" xr:uid="{DDEC0D7C-8BD8-4873-9BE0-ACE7D62B74A2}"/>
-    <hyperlink ref="C201" r:id="rId279" xr:uid="{F722FC63-C656-4DC5-9400-0C8FD7CD4497}"/>
-    <hyperlink ref="C202" r:id="rId280" xr:uid="{28B6FB95-5732-4BF5-9E2C-2DD1FFE1020F}"/>
-    <hyperlink ref="C203" r:id="rId281" xr:uid="{90F960B8-F5CE-47F4-90B8-546D0BDC8A88}"/>
-    <hyperlink ref="C204" r:id="rId282" xr:uid="{AA85CD0F-68CB-45A4-B5AB-A14C513CDCC0}"/>
-    <hyperlink ref="C205" r:id="rId283" xr:uid="{04959C79-61A1-47FD-8CEF-71C7D55C2CF3}"/>
-    <hyperlink ref="C206" r:id="rId284" xr:uid="{9D94B516-6ED3-452A-8AB2-9216ED94C432}"/>
-    <hyperlink ref="C207" r:id="rId285" xr:uid="{806E580E-0FC6-44C3-933B-94FACEB977CA}"/>
-    <hyperlink ref="C208" r:id="rId286" xr:uid="{211F39DF-DE7A-4E60-B38E-73DC34D9A233}"/>
-    <hyperlink ref="C209" r:id="rId287" xr:uid="{E513B4D2-0589-4F8E-B604-8A6BF589872A}"/>
-    <hyperlink ref="C210" r:id="rId288" xr:uid="{5E0B0731-DFFC-4B55-AE7B-ECB5B1FAEC15}"/>
-    <hyperlink ref="C211" r:id="rId289" xr:uid="{FE3DB559-918F-48B6-9098-315A80A9174B}"/>
-    <hyperlink ref="C212" r:id="rId290" xr:uid="{7FFE7A8C-3457-4631-B9E2-D78E747DF36B}"/>
-    <hyperlink ref="C213" r:id="rId291" xr:uid="{A043D2AD-013D-4A38-80E4-16EC6CA8EFCE}"/>
-    <hyperlink ref="C214" r:id="rId292" xr:uid="{D0DA2B74-B82F-44A2-9B08-4795D3A87BC2}"/>
-    <hyperlink ref="C215" r:id="rId293" xr:uid="{8A607126-BEE0-4991-AA69-75A2C284C865}"/>
+    <hyperlink ref="D5" r:id="rId42" xr:uid="{0FD4529E-531F-4798-A218-C6243DBF6B7F}"/>
+    <hyperlink ref="D6" r:id="rId43" xr:uid="{B7625554-3F39-4A44-9B49-6C895F39A314}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{B044809F-3681-4C83-9A49-C8218304CBCA}"/>
+    <hyperlink ref="D8" r:id="rId45" xr:uid="{2DC04E41-C262-43DB-AAF7-B9477E372905}"/>
+    <hyperlink ref="D9" r:id="rId46" xr:uid="{493CFBF9-6FBB-4A47-8977-9A69DA71E3A2}"/>
+    <hyperlink ref="D10" r:id="rId47" xr:uid="{A03A7917-BD75-4323-A274-02F5B7D12466}"/>
+    <hyperlink ref="D11" r:id="rId48" xr:uid="{39765542-757D-47C8-B570-9C532C4DCD27}"/>
+    <hyperlink ref="D12" r:id="rId49" xr:uid="{E0EA7177-5AB6-4230-83E8-5D243E47F0FA}"/>
+    <hyperlink ref="D13" r:id="rId50" xr:uid="{C0E1D0CF-67CB-4F70-B4DB-1A44A0BF2745}"/>
+    <hyperlink ref="D14" r:id="rId51" xr:uid="{3D5B3C95-9746-494D-9527-097CFE1417B8}"/>
+    <hyperlink ref="D15" r:id="rId52" xr:uid="{9DA24E97-762F-4EDB-92C6-8C66ABCA0506}"/>
+    <hyperlink ref="D16" r:id="rId53" xr:uid="{3D7E843C-617F-4F79-A46D-4FA3F25ABD2D}"/>
+    <hyperlink ref="D17" r:id="rId54" xr:uid="{88B37BA9-6CF8-4B18-8734-AA6841D5FCFB}"/>
+    <hyperlink ref="D18" r:id="rId55" xr:uid="{262E8CEE-E418-4020-83EC-EE30F12C4084}"/>
+    <hyperlink ref="D19" r:id="rId56" xr:uid="{0337B7EE-773C-403E-8028-CDE549B87975}"/>
+    <hyperlink ref="D20" r:id="rId57" xr:uid="{278C8D33-376E-441C-BAF7-981B5C9D69FC}"/>
+    <hyperlink ref="D21" r:id="rId58" xr:uid="{B8EB91EE-78D3-4B71-B51C-200E6D05D31A}"/>
+    <hyperlink ref="D22" r:id="rId59" xr:uid="{D6F68DE5-1C8B-4D92-83BC-50C4DF2AD6A2}"/>
+    <hyperlink ref="D23" r:id="rId60" xr:uid="{5998BA64-303B-40CB-B1A7-129C29F2EE21}"/>
+    <hyperlink ref="D24" r:id="rId61" xr:uid="{B112AFFB-9B1B-44A7-B546-27A7844B20D2}"/>
+    <hyperlink ref="D25" r:id="rId62" xr:uid="{CBD60D44-B0E8-408F-BB4A-E5CFD7F8465C}"/>
+    <hyperlink ref="D26" r:id="rId63" xr:uid="{31814149-E243-40B5-A74B-CB845306E880}"/>
+    <hyperlink ref="D27" r:id="rId64" xr:uid="{402A8FAF-300D-481D-91B9-52FF7187933A}"/>
+    <hyperlink ref="D28" r:id="rId65" xr:uid="{763366E1-0121-427F-BF5D-5DD4123083CF}"/>
+    <hyperlink ref="D29" r:id="rId66" xr:uid="{82CA7C47-06DA-40BA-91F6-42D20346B75A}"/>
+    <hyperlink ref="D30" r:id="rId67" xr:uid="{FA4A7FC4-F747-42A6-92F8-B091DB4E9D62}"/>
+    <hyperlink ref="D31" r:id="rId68" xr:uid="{F8F0BD5A-E56D-4278-B082-C32346226197}"/>
+    <hyperlink ref="D32" r:id="rId69" xr:uid="{8361F8A8-473F-4463-BF7C-8E7FD33FB3FA}"/>
+    <hyperlink ref="D33" r:id="rId70" xr:uid="{6159D793-3814-4001-AD33-60592ED56B21}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{9687E362-D786-450A-A5A5-BADB04F99003}"/>
+    <hyperlink ref="D35" r:id="rId72" xr:uid="{CB60029D-0B5A-4CD5-88CB-37F73AB138BB}"/>
+    <hyperlink ref="D36" r:id="rId73" xr:uid="{112B192A-5ADC-4384-A07B-900DDB82FA88}"/>
+    <hyperlink ref="D37" r:id="rId74" xr:uid="{8C42F150-3A80-4CF0-8558-87091EB57B89}"/>
+    <hyperlink ref="D38" r:id="rId75" xr:uid="{589F67A7-0040-4AEA-9DCA-0069EB8BEA92}"/>
+    <hyperlink ref="D39" r:id="rId76" xr:uid="{E0D4054D-ADA1-4F87-AF31-41BFA0F36E18}"/>
+    <hyperlink ref="D40" r:id="rId77" xr:uid="{DE25F89B-37BE-434F-8519-6B8142900807}"/>
+    <hyperlink ref="D41" r:id="rId78" xr:uid="{E38620F8-824C-4CA9-85FA-695F8CE17332}"/>
+    <hyperlink ref="C43" r:id="rId79" display="S:\卒業研究\sosora\J2019\2019_Manu\01_Unityを使ったゲームの作成.pdf" xr:uid="{E9CD835F-6A34-443E-9EB6-925CE050681C}"/>
+    <hyperlink ref="C44" r:id="rId80" display="S:\卒業研究\sosora\J2019\2019_Manu\02_ARMeasureを使った距離測定iOSアプリ.pdf" xr:uid="{1E38916D-185D-44EA-A6EA-81AEC36FCCD3}"/>
+    <hyperlink ref="C45" r:id="rId81" display="S:\卒業研究\sosora\J2019\2019_Manu\03_AIスピーカーを活用した遠隔スイッチ操作.pdf" xr:uid="{7CF5B855-2A23-4D99-9062-D1A6998DB007}"/>
+    <hyperlink ref="C46" r:id="rId82" display="S:\卒業研究\sosora\J2019\2019_Manu\04_数学学習システムにおける手書き入力文字の認識.pdf" xr:uid="{5C142386-0021-43DF-809A-38A33B4E7A47}"/>
+    <hyperlink ref="C47" r:id="rId83" display="S:\卒業研究\sosora\J2019\2019_Manu\05_AIを使った自然言語処理の研究.pdf" xr:uid="{0E55F681-31F3-491B-89C0-98FD3BFF4D98}"/>
+    <hyperlink ref="E29" r:id="rId84" xr:uid="{35013B62-2236-43C4-8953-4068E150894E}"/>
+    <hyperlink ref="C48" r:id="rId85" display="S:\卒業研究\sosora\J2019\2019_Manu\06_RSSを活用したトレンド表示の研究.pdf" xr:uid="{2FEDDF97-FAEC-4D75-83F2-645759CD58D0}"/>
+    <hyperlink ref="C49" r:id="rId86" display="S:\卒業研究\sosora\J2019\2019_Manu\07_Raspberry Piを用いたロボットカー制御の研究.pdf" xr:uid="{3F8EC4F6-333F-4EAA-80A7-F8ED31CA1D4F}"/>
+    <hyperlink ref="C50" r:id="rId87" display="S:\卒業研究\sosora\J2019\2019_Manu\08_ニューラルネットワークを用いた数字認識の研究.pdf" xr:uid="{CD3A3BAA-8ADE-4C7E-8CC4-EB33D6DE6D99}"/>
+    <hyperlink ref="C51" r:id="rId88" display="S:\卒業研究\sosora\J2019\2019_Manu\09_音楽ゲーム「GAT]の作成.pdf" xr:uid="{55B5893E-66F5-44B7-85E8-5A8DFEF97D4D}"/>
+    <hyperlink ref="C52" r:id="rId89" display="S:\卒業研究\sosora\J2019\2019_Manu\10_ESP32を用いたIoT調理鍋の製作.pdf" xr:uid="{A06FEEA3-23EC-445C-A69E-C1528099F1AA}"/>
+    <hyperlink ref="C53" r:id="rId90" display="S:\卒業研究\sosora\J2019\2019_Manu\11_ARを用いた楽園祭用スタンプラリーアプリの作成.pdf" xr:uid="{1701F540-F831-4C85-9B02-A24332AAD2C9}"/>
+    <hyperlink ref="C54" r:id="rId91" display="S:\卒業研究\sosora\J2019\2019_Manu\12_CNNによる顔の彫りの深さを判定するアプリの作成.pdf" xr:uid="{87175C1E-6F9D-497C-B82C-E5B9CCBB521C}"/>
+    <hyperlink ref="C55" r:id="rId92" display="S:\卒業研究\sosora\J2019\2019_Manu\13_卒業研究DB管理システムの作成.pdf" xr:uid="{81541A4A-829E-4997-805F-565FBE349349}"/>
+    <hyperlink ref="C56" r:id="rId93" display="S:\卒業研究\sosora\J2019\2019_Manu\14_デジタルエフェクターの作成.pdf" xr:uid="{9C60A64F-B93C-49E4-AB5C-1484A48986DA}"/>
+    <hyperlink ref="C57" r:id="rId94" display="S:\卒業研究\sosora\J2019\2019_Manu\15_入力デバイスに水を用いて音と光を出力するシステムの製作.pdf" xr:uid="{F63A9DB3-5C50-49B8-9E3D-EDC857CBFE70}"/>
+    <hyperlink ref="C58" r:id="rId95" display="S:\卒業研究\sosora\J2019\2019_Manu\16_SuperColliderによる音響生成システムの製作.pdf" xr:uid="{5042C3D6-EFB1-4148-AD66-652986292F1B}"/>
+    <hyperlink ref="C59" r:id="rId96" display="S:\卒業研究\sosora\J2019\2019_Manu\17_自動作曲システム.pdf" xr:uid="{7F05533D-57D1-4D98-8CCC-0B0CCAF611B3}"/>
+    <hyperlink ref="C60" r:id="rId97" display="S:\卒業研究\sosora\J2019\2019_Manu\18_フリーマーケットサイトの作成 .pdf" xr:uid="{71C3F926-1A36-46F9-A263-6D03FCBE7DE4}"/>
+    <hyperlink ref="C61" r:id="rId98" display="S:\卒業研究\sosora\J2019\2019_Manu\19_学園祭会計管理システムの作成.pdf" xr:uid="{FBC73443-E024-43E0-BD0B-DE2325DEED5F}"/>
+    <hyperlink ref="C62" r:id="rId99" display="S:\卒業研究\sosora\J2019\2019_Manu\20_球技大会支援システムの作成.pdf" xr:uid="{BA422F7F-97E3-4A3D-8929-FA0BA18258F3}"/>
+    <hyperlink ref="C63" r:id="rId100" display="S:\卒業研究\sosora\J2019\2019_Manu\21_Unityを用いた子供向けAR作品の作成.pdf" xr:uid="{B4B806F7-2451-41B5-A0F3-E91B252CA102}"/>
+    <hyperlink ref="C64" r:id="rId101" display="S:\卒業研究\sosora\J2018\2018_Manu\01Twitterのクライアントアプリ.pdf" xr:uid="{9A708729-AF6A-4C50-AF09-DCAFAA7FF3F9}"/>
+    <hyperlink ref="C65" r:id="rId102" display="S:\卒業研究\sosora\J2018\2018_Manu\02LINEのMessaging APIを用いた防犯システムの作成.pdf" xr:uid="{49AEA610-B53C-4C35-8B6C-92807C1E15BA}"/>
+    <hyperlink ref="C67" r:id="rId103" display="S:\卒業研究\sosora\J2018\2018_Manu\04Raspberry Piを用いた自動施錠する棚の製作.pdf" xr:uid="{F46396FD-5212-4BA6-8310-7320DFBC1E4C}"/>
+    <hyperlink ref="C68" r:id="rId104" display="S:\卒業研究\sosora\J2018\2018_Manu\05画像投影を用いたデータ伝送教材の製作.pdf" xr:uid="{A6500816-E4B7-4C3B-BAE1-590AD84A5B79}"/>
+    <hyperlink ref="C69" r:id="rId105" display="S:\卒業研究\sosora\J2018\2018_Manu\06JavaScriptを用いた画像編集Webアプリケーション.pdf" xr:uid="{55260887-0F1A-425E-889B-7D22713E067C}"/>
+    <hyperlink ref="C70" r:id="rId106" display="S:\卒業研究\sosora\J2018\2018_Manu\07フリーマーケットサイトの作成.pdf" xr:uid="{B801923C-44E0-45CC-B787-42138D0ACC45}"/>
+    <hyperlink ref="C71" r:id="rId107" display="S:\卒業研究\sosora\J2018\2018_Manu\08PHPを利用した映画記録システムの作成.pdf" xr:uid="{46B3B985-78F7-4E82-A6B4-A3D489491A8D}"/>
+    <hyperlink ref="C72" r:id="rId108" display="S:\卒業研究\sosora\J2018\2018_Manu\09RFIDを用いた出席確認システム.pdf" xr:uid="{4274D125-A0DE-4902-A018-65F1CB2240FE}"/>
+    <hyperlink ref="C73" r:id="rId109" display="S:\卒業研究\sosora\J2018\2018_Manu\10LeapMotionによる文字入力システムの改良.pdf" xr:uid="{1893B04A-7011-48A7-88DA-E62AC7DE7005}"/>
+    <hyperlink ref="C74" r:id="rId110" display="S:\卒業研究\sosora\J2018\2018_Manu\11技能五輪メカトロニクス職種の取り組みについて.pdf" xr:uid="{5703361D-984B-4E35-8E9B-355D792CD054}"/>
+    <hyperlink ref="C75" r:id="rId111" display="S:\卒業研究\sosora\J2018\2018_Manu\12PureDataを用いた自動作曲システムの製作.pdf" xr:uid="{56126796-5731-46BE-AFBB-CF72ED8200C5}"/>
+    <hyperlink ref="C76" r:id="rId112" display="S:\卒業研究\sosora\J2018\2018_Manu\13子供向け教材作成によるScratchの活用研究.pdf" xr:uid="{3E2A2A19-9C42-4170-8E47-1BBFAD3E87F9}"/>
+    <hyperlink ref="C77" r:id="rId113" display="S:\卒業研究\sosora\J2018\2018_Manu\14機械学習を使った人狼AIの作成.pdf" xr:uid="{E3EBC5C1-24E1-40EE-8FC5-EA6336D5782D}"/>
+    <hyperlink ref="C78" r:id="rId114" display="S:\卒業研究\sosora\J2018\2018_Manu\15複数人で遊べるペイントツール製作.pdf" xr:uid="{F701B856-F493-424E-99BE-97293101A1FA}"/>
+    <hyperlink ref="C79" r:id="rId115" display="S:\卒業研究\sosora\J2018\2018_Manu\16入力デバイスに水を用いて音を出力・制御する楽器の製作.pdf" xr:uid="{B27A6EAF-4FD6-4DE2-B65E-4E152486F0CA}"/>
+    <hyperlink ref="C80" r:id="rId116" display="S:\卒業研究\sosora\J2018\2018_Manu\17加速度センサを用いたウェアラブル端末の作成 .pdf" xr:uid="{44BA935E-CE23-4DC1-8EAA-E9030EDB89DF}"/>
+    <hyperlink ref="C81" r:id="rId117" display="S:\卒業研究\sosora\J2018\2018_Manu\18Arduinoを使用してテーブルのバランスをとり、自走する装置の作成.pdf" xr:uid="{96D2DD32-2155-4836-90FC-1421F89D967D}"/>
+    <hyperlink ref="C82" r:id="rId118" display="S:\卒業研究\sosora\J2018\2018_Manu\19不適切画像フィルタリングシステムの作成.pdf" xr:uid="{CECE36C9-0DA8-4168-945D-8111E88019CA}"/>
+    <hyperlink ref="C116" r:id="rId119" xr:uid="{FAE30C6D-2B02-43DC-8275-7BCAFC2B39A9}"/>
+    <hyperlink ref="C117" r:id="rId120" xr:uid="{ADEF78AA-D44C-4684-A646-D1C48BF278D4}"/>
+    <hyperlink ref="C118" r:id="rId121" xr:uid="{0F86DFBF-FC66-40D2-B0FE-8FBCD4C105D5}"/>
+    <hyperlink ref="C119" r:id="rId122" xr:uid="{590C0AE3-69DB-4594-99CA-91D94DCF4580}"/>
+    <hyperlink ref="C120" r:id="rId123" xr:uid="{D2FB0EF8-1B5A-4C9E-A3EB-FC4CD2378F05}"/>
+    <hyperlink ref="C121" r:id="rId124" xr:uid="{9C52B397-FDE6-42C9-9A46-BB949C60D76E}"/>
+    <hyperlink ref="C122" r:id="rId125" xr:uid="{E9E93FB2-E227-4CF1-A355-C591352352F1}"/>
+    <hyperlink ref="C123" r:id="rId126" xr:uid="{9C22684C-33CA-4901-8CC3-BA44A3FD40E7}"/>
+    <hyperlink ref="C124" r:id="rId127" xr:uid="{27E653C1-964A-45B1-8C70-04A45178A491}"/>
+    <hyperlink ref="C125" r:id="rId128" xr:uid="{C7C34EE8-9A5E-4A59-9127-092843FE2AEF}"/>
+    <hyperlink ref="C126" r:id="rId129" xr:uid="{600D6D20-013B-4978-894B-BFCF9D9E556E}"/>
+    <hyperlink ref="C127" r:id="rId130" xr:uid="{51DF9893-FBC1-497A-BFBA-F2B6E8238549}"/>
+    <hyperlink ref="C128" r:id="rId131" xr:uid="{21C587D6-1CB8-46DB-BBE8-E3A9DCE92B53}"/>
+    <hyperlink ref="C129" r:id="rId132" xr:uid="{062299D8-399D-488F-8F20-4CE4A9A4817D}"/>
+    <hyperlink ref="C130" r:id="rId133" xr:uid="{63BD29C7-30D6-4AEB-AA38-BC2BF76A0D0C}"/>
+    <hyperlink ref="C131" r:id="rId134" xr:uid="{8DEE2C89-7D07-4DB6-A7E5-8834D6C7FF1F}"/>
+    <hyperlink ref="C132" r:id="rId135" xr:uid="{34AC601D-EEB3-4189-9407-97A273C7E6F9}"/>
+    <hyperlink ref="C134" r:id="rId136" xr:uid="{D48AF1E1-E79E-48EB-AC04-6D6425851B41}"/>
+    <hyperlink ref="C133" r:id="rId137" xr:uid="{BECA58D5-D708-46A7-B673-E728021BBEDD}"/>
+    <hyperlink ref="C135" r:id="rId138" xr:uid="{1767FAD4-8C88-44BB-AEBC-924C16022A22}"/>
+    <hyperlink ref="C136" r:id="rId139" xr:uid="{F51F02C2-110E-45CA-B8BF-1B67AB892D2C}"/>
+    <hyperlink ref="C137" r:id="rId140" xr:uid="{8997B153-542D-42BF-B1D7-B9207E0F27B1}"/>
+    <hyperlink ref="C138" r:id="rId141" xr:uid="{0E9445FE-F07E-45DE-BAD2-E60BF6CB5432}"/>
+    <hyperlink ref="C2" r:id="rId142" xr:uid="{0631CECD-0A42-43A1-8160-C8FF01F04B5D}"/>
+    <hyperlink ref="C83" r:id="rId143" xr:uid="{56151E7F-74CF-41B1-AD5D-FD053A8A3782}"/>
+    <hyperlink ref="C84" r:id="rId144" xr:uid="{B373E675-8CB3-4BBE-85C1-86A555AD688E}"/>
+    <hyperlink ref="C3" r:id="rId145" xr:uid="{16F2A626-DA7C-47A6-A54C-2485CE1F859B}"/>
+    <hyperlink ref="C4" r:id="rId146" xr:uid="{A2A49B00-5CF0-499E-9DA1-8FEBFDCC3796}"/>
+    <hyperlink ref="C6" r:id="rId147" xr:uid="{CB0CECA5-D5A9-4C1D-93C7-F28D3B5FCC8D}"/>
+    <hyperlink ref="C5" r:id="rId148" xr:uid="{6568B755-5D9D-4BC9-89C9-5F4022C6C340}"/>
+    <hyperlink ref="C7" r:id="rId149" xr:uid="{B3B06D18-0F97-4206-8FA3-D3788575ECD4}"/>
+    <hyperlink ref="C8" r:id="rId150" xr:uid="{611E44CD-75AC-4A16-854D-3B19E2A1A7A6}"/>
+    <hyperlink ref="C9" r:id="rId151" xr:uid="{F12F4C1B-DEE3-4CD8-8823-A624CB93C78F}"/>
+    <hyperlink ref="C10" r:id="rId152" xr:uid="{4DAF38D8-D49A-4CD3-9A8F-D997F7915926}"/>
+    <hyperlink ref="C11" r:id="rId153" xr:uid="{B37EC5CF-F773-495A-9C99-D55D5F591496}"/>
+    <hyperlink ref="C12" r:id="rId154" xr:uid="{E696E7E1-3FD9-4352-BE52-309D04A837AD}"/>
+    <hyperlink ref="C13" r:id="rId155" xr:uid="{27074A8E-C282-46CE-A375-9F5B48FDF0CB}"/>
+    <hyperlink ref="C14" r:id="rId156" xr:uid="{AEFEC61E-03D4-4D56-92BA-DA8A22BA100D}"/>
+    <hyperlink ref="C15" r:id="rId157" xr:uid="{DE8E97B1-C587-4FA9-A89F-C82282085E5E}"/>
+    <hyperlink ref="C16" r:id="rId158" xr:uid="{E0ECEDEC-8B78-44B1-BF8B-0A9EB761288E}"/>
+    <hyperlink ref="C17" r:id="rId159" xr:uid="{78B32A5F-C55B-40E5-963E-DB0B4C9FFC63}"/>
+    <hyperlink ref="C18" r:id="rId160" xr:uid="{44680998-7FF9-4979-9796-1DC20B2B0854}"/>
+    <hyperlink ref="C19" r:id="rId161" xr:uid="{B40FB595-6E26-4A42-B316-BDB477A03FD6}"/>
+    <hyperlink ref="C20" r:id="rId162" xr:uid="{7E13B583-6704-48F3-9DEC-4FC2139A7C18}"/>
+    <hyperlink ref="C21" r:id="rId163" xr:uid="{BA625B9C-30CD-4AC6-AE62-073C71029E5E}"/>
+    <hyperlink ref="C22" r:id="rId164" xr:uid="{510F8704-3893-4886-AC91-AF593643D641}"/>
+    <hyperlink ref="C23" r:id="rId165" xr:uid="{37F13444-721D-4936-9A7B-132CA64B2B70}"/>
+    <hyperlink ref="C24" r:id="rId166" xr:uid="{D8EB87C0-F371-48AA-8DB1-96CF4A95686B}"/>
+    <hyperlink ref="C25" r:id="rId167" xr:uid="{5121BDA2-47A7-4CDA-B5FD-F5213E7D60D9}"/>
+    <hyperlink ref="C26" r:id="rId168" xr:uid="{00894BAA-6111-4200-9DD6-0EB24C274F8E}"/>
+    <hyperlink ref="C27" r:id="rId169" xr:uid="{7BB48A38-589A-425F-B854-4C87D7F00777}"/>
+    <hyperlink ref="C42" r:id="rId170" display="S:\卒業研究\sosora\J2020_mada\05 VRコンテンツの製作.pdf" xr:uid="{B9026836-65FB-4F6B-B4AC-2FCAD974FE19}"/>
+    <hyperlink ref="C85" r:id="rId171" xr:uid="{2153DB15-217C-4E38-8D69-58F715EF2278}"/>
+    <hyperlink ref="C86" r:id="rId172" xr:uid="{35B9F540-465D-407C-BDBD-36B81C7B6C16}"/>
+    <hyperlink ref="C87" r:id="rId173" xr:uid="{11B63C13-59AD-4E38-9665-7174536FE067}"/>
+    <hyperlink ref="C88" r:id="rId174" xr:uid="{4392FF5A-0D64-437D-9CEE-BCBF58FE1A31}"/>
+    <hyperlink ref="C89" r:id="rId175" xr:uid="{B3E7090B-3CC7-466F-9F1F-15DAE8CB7F90}"/>
+    <hyperlink ref="C90" r:id="rId176" xr:uid="{0CBCA144-8DF6-469D-9314-05A702334F51}"/>
+    <hyperlink ref="C91" r:id="rId177" xr:uid="{8A087E6E-7299-4E29-AC50-7EB1250E38B9}"/>
+    <hyperlink ref="C92" r:id="rId178" xr:uid="{C17E7854-89EB-4B7B-93E1-F68D44AC9B55}"/>
+    <hyperlink ref="C93" r:id="rId179" xr:uid="{A7A7EFCF-1B53-452B-B58C-A96FA106E3D6}"/>
+    <hyperlink ref="C94" r:id="rId180" xr:uid="{83F6F35B-865F-4C55-9D64-65A458519271}"/>
+    <hyperlink ref="C95" r:id="rId181" xr:uid="{7A00D5AD-A783-467B-A8B6-4619A21772AC}"/>
+    <hyperlink ref="C96" r:id="rId182" xr:uid="{31B4472F-0034-40AB-9204-A31D561BC1CF}"/>
+    <hyperlink ref="C97" r:id="rId183" xr:uid="{43F6D6E8-E177-4EA5-AF3F-2454ED0A7BAA}"/>
+    <hyperlink ref="C98" r:id="rId184" xr:uid="{B766E526-FD70-4F7F-A3FD-C4137989DAEE}"/>
+    <hyperlink ref="C139" r:id="rId185" xr:uid="{290A0ACE-47D5-4F2D-ADD9-CABD0A8B6413}"/>
+    <hyperlink ref="C140" r:id="rId186" xr:uid="{210AB6A0-B7F1-4738-81C4-8B15D48B188B}"/>
+    <hyperlink ref="C141" r:id="rId187" xr:uid="{33918344-C01D-4D0E-B51D-70F0B1DD5C06}"/>
+    <hyperlink ref="C142" r:id="rId188" xr:uid="{71FAC53B-5235-4DF7-8A00-DAD9A404C726}"/>
+    <hyperlink ref="C143" r:id="rId189" xr:uid="{36E24B86-E394-44E6-82CC-76EA4F408D1C}"/>
+    <hyperlink ref="C144" r:id="rId190" xr:uid="{A55689B6-AC6D-4245-9503-7990FAC29844}"/>
+    <hyperlink ref="C145" r:id="rId191" xr:uid="{23446FD9-1B5E-4B24-B71B-E3458048F182}"/>
+    <hyperlink ref="C146" r:id="rId192" xr:uid="{0EF61AD4-7A5C-4497-8101-ABD5344BA763}"/>
+    <hyperlink ref="C147" r:id="rId193" xr:uid="{053C2DD3-5F9C-489D-A6D4-68AE80A016B7}"/>
+    <hyperlink ref="C148" r:id="rId194" xr:uid="{179582D7-BBFD-4EF9-B24F-28F19A4D0A9C}"/>
+    <hyperlink ref="C149" r:id="rId195" xr:uid="{3D43FFE3-1475-4344-8A8A-20E9C3668DAB}"/>
+    <hyperlink ref="C150" r:id="rId196" xr:uid="{03894F74-8E49-44BD-9E54-A925BD4C0656}"/>
+    <hyperlink ref="C151" r:id="rId197" xr:uid="{32523279-7856-4D0E-BFF9-A10160ED4A45}"/>
+    <hyperlink ref="C152" r:id="rId198" xr:uid="{8D99CF09-0A04-4D33-AFE9-ABDAC0710795}"/>
+    <hyperlink ref="C153" r:id="rId199" xr:uid="{5B52047C-F9CC-495A-8448-05598DF621E1}"/>
+    <hyperlink ref="C154" r:id="rId200" xr:uid="{6BE7F061-FA5B-476C-9ABA-98E47C262725}"/>
+    <hyperlink ref="C155" r:id="rId201" xr:uid="{EC15B494-E059-4D11-AB6C-51EA08E7DFE2}"/>
+    <hyperlink ref="C99" r:id="rId202" xr:uid="{1C1911FF-2BBD-4D54-BC20-6414A0E3F80D}"/>
+    <hyperlink ref="C100" r:id="rId203" xr:uid="{DC6B62AD-FB86-48DE-B160-18539CA02EE0}"/>
+    <hyperlink ref="C101" r:id="rId204" xr:uid="{D44D2E77-7D77-467E-8569-D7228471C94F}"/>
+    <hyperlink ref="C102" r:id="rId205" xr:uid="{7F978AA7-2D76-4CDB-BD03-A26208C14F0A}"/>
+    <hyperlink ref="C103" r:id="rId206" xr:uid="{A5373DF1-5A0B-4DC0-B734-69080A33FF58}"/>
+    <hyperlink ref="C104" r:id="rId207" xr:uid="{DC94EB75-737C-4527-B029-FCD4A00FC8B9}"/>
+    <hyperlink ref="C105" r:id="rId208" xr:uid="{68385ACF-0615-44B6-9013-9955EB5364A7}"/>
+    <hyperlink ref="C106" r:id="rId209" xr:uid="{ABE1E799-6AEA-4283-933C-AA5CA4821B46}"/>
+    <hyperlink ref="C107" r:id="rId210" xr:uid="{BFE90E19-7FF8-4D68-AEE1-89256993CFB5}"/>
+    <hyperlink ref="C108" r:id="rId211" xr:uid="{4E72AD5E-BFB3-4EE2-9BF2-C4D03C17C5B2}"/>
+    <hyperlink ref="C109" r:id="rId212" xr:uid="{6BA36B8C-EE9E-4AEF-9C71-39060F7ACC2F}"/>
+    <hyperlink ref="C110" r:id="rId213" xr:uid="{91110F9F-13F0-41EB-88BF-1476882A5512}"/>
+    <hyperlink ref="C111" r:id="rId214" xr:uid="{75E06C89-9592-4139-9058-C57F245EA00B}"/>
+    <hyperlink ref="C112" r:id="rId215" xr:uid="{3EA491C9-C4DE-45CE-A75C-DEDCD1D8990F}"/>
+    <hyperlink ref="C113" r:id="rId216" xr:uid="{43EE9C2F-BAFB-4D2F-811E-D6E4E96626DC}"/>
+    <hyperlink ref="C114" r:id="rId217" xr:uid="{BEDA9D76-0232-42D4-A7F3-C47373AAFB7F}"/>
+    <hyperlink ref="C115" r:id="rId218" xr:uid="{93622FC4-684D-4D1C-8613-7BB9DE773715}"/>
+    <hyperlink ref="C28" r:id="rId219" xr:uid="{A3BBAB0C-AF08-4E5B-AFE4-289D86728371}"/>
+    <hyperlink ref="C29" r:id="rId220" xr:uid="{D5C739DD-1A11-41BE-A396-11636D949719}"/>
+    <hyperlink ref="C30" r:id="rId221" xr:uid="{824F2509-834C-4B3E-B65B-44579B12F1E9}"/>
+    <hyperlink ref="C31" r:id="rId222" xr:uid="{4FC1B705-5937-493B-BB5C-D0C651FEDEF7}"/>
+    <hyperlink ref="C32" r:id="rId223" xr:uid="{4DF49E93-4657-4141-8D6C-5FE6C2BFD35B}"/>
+    <hyperlink ref="C33" r:id="rId224" xr:uid="{EDA7CB4E-62F6-4D52-BFF9-86D8944535C0}"/>
+    <hyperlink ref="C34" r:id="rId225" xr:uid="{D95883CA-9945-4717-918F-F8A8B5CBF93F}"/>
+    <hyperlink ref="C35" r:id="rId226" xr:uid="{43A0F118-0EDF-4934-A6C4-9384C4C47DD1}"/>
+    <hyperlink ref="C36" r:id="rId227" xr:uid="{2F44AB91-FBDB-4BB8-B9EE-44EE9B1B080C}"/>
+    <hyperlink ref="C37" r:id="rId228" xr:uid="{CA4D68B3-A4E0-495D-BF39-0DDB3CE44A63}"/>
+    <hyperlink ref="C38" r:id="rId229" xr:uid="{D27D6052-D9B4-404A-BE65-8CC13F09CC56}"/>
+    <hyperlink ref="C39" r:id="rId230" xr:uid="{51B156E4-16F2-42C0-B689-909999BFB4E9}"/>
+    <hyperlink ref="C40" r:id="rId231" xr:uid="{4E760648-E3D5-464F-94B4-F4ED408A66AF}"/>
+    <hyperlink ref="C41" r:id="rId232" xr:uid="{E0CFDDC2-0982-4913-A0F4-87843B321DE9}"/>
+    <hyperlink ref="C156" r:id="rId233" xr:uid="{E4016F46-6419-4AA4-B79E-FE41DEF604C3}"/>
+    <hyperlink ref="C157" r:id="rId234" xr:uid="{2DBEDABD-45CE-4409-985E-DD44104D2CE8}"/>
+    <hyperlink ref="C158" r:id="rId235" xr:uid="{3A8A2516-6604-4E15-9CF0-1FBE795991B7}"/>
+    <hyperlink ref="C159" r:id="rId236" xr:uid="{F3A58F4A-4EC8-4C08-9B61-5A7798BDEF92}"/>
+    <hyperlink ref="C160" r:id="rId237" xr:uid="{F50838DE-4CBA-4F9D-9C91-C47CA3F63FAD}"/>
+    <hyperlink ref="C161" r:id="rId238" xr:uid="{56A6D45E-3D9C-40B2-8764-346799936B10}"/>
+    <hyperlink ref="C162" r:id="rId239" xr:uid="{BCC4EF76-A436-46EA-BFF1-AA92FFED0080}"/>
+    <hyperlink ref="C163" r:id="rId240" xr:uid="{C488F914-F6C8-4E3A-BDC6-3CBBC4F88A60}"/>
+    <hyperlink ref="C164" r:id="rId241" xr:uid="{EA08B0C6-D1AD-488B-9BAA-6A3893AABBDF}"/>
+    <hyperlink ref="C165" r:id="rId242" xr:uid="{A639F9D6-300A-4772-868F-88BC529905A2}"/>
+    <hyperlink ref="C166" r:id="rId243" xr:uid="{FFC96BA5-955C-4C5F-A33F-052EC97E4AE5}"/>
+    <hyperlink ref="C167" r:id="rId244" xr:uid="{128710D8-3F75-4968-AD82-9CA792AC1FAF}"/>
+    <hyperlink ref="C168" r:id="rId245" xr:uid="{DDC2E39A-1B00-42F9-BCB8-A1D2C9E2BE4A}"/>
+    <hyperlink ref="C169" r:id="rId246" xr:uid="{8708D00E-226B-489F-AA5A-74D64B746D69}"/>
+    <hyperlink ref="C170" r:id="rId247" xr:uid="{7772771F-EB76-49DF-BAA4-481AFECCE968}"/>
+    <hyperlink ref="C171" r:id="rId248" xr:uid="{CB99554C-70E9-47D2-A55A-766A83FECC12}"/>
+    <hyperlink ref="C172" r:id="rId249" xr:uid="{012D67C5-4B92-44C0-9637-0F81AE7F559F}"/>
+    <hyperlink ref="C173" r:id="rId250" xr:uid="{C3846581-9756-456F-A7CF-DA58CBCC1ADD}"/>
+    <hyperlink ref="C174" r:id="rId251" xr:uid="{880A5D3A-5EC3-4BEA-BE58-5AA3386A3550}"/>
+    <hyperlink ref="C175" r:id="rId252" xr:uid="{49BF4D64-A044-4300-B44F-1A473049C79A}"/>
+    <hyperlink ref="C176" r:id="rId253" xr:uid="{47039414-807B-47B4-A7A7-6AAED817B81F}"/>
+    <hyperlink ref="C177" r:id="rId254" xr:uid="{B48C8CF7-625A-4B5D-B719-905C9287FB02}"/>
+    <hyperlink ref="C178" r:id="rId255" xr:uid="{B42B8516-0931-4D5B-A630-54699A889D2D}"/>
+    <hyperlink ref="C179" r:id="rId256" xr:uid="{CE48CB8D-DFD7-4279-9F3B-35115BE2DC96}"/>
+    <hyperlink ref="C180" r:id="rId257" xr:uid="{A87247CB-044D-441A-8A80-1EAFAB8ED766}"/>
+    <hyperlink ref="C181" r:id="rId258" xr:uid="{B4296E68-44CD-4683-B539-1DC3729E8AB3}"/>
+    <hyperlink ref="C182" r:id="rId259" xr:uid="{AF6F0362-5D7E-44C9-87D6-10F75828C53E}"/>
+    <hyperlink ref="C183" r:id="rId260" xr:uid="{BCAFD455-98B4-4B02-9563-6CBD8EEBDA3B}"/>
+    <hyperlink ref="C184" r:id="rId261" xr:uid="{D2CDAACF-0DE1-43FA-9273-E23487BE57F7}"/>
+    <hyperlink ref="C185" r:id="rId262" xr:uid="{5C220C44-236E-46F6-8407-21EA8A58C85D}"/>
+    <hyperlink ref="C186" r:id="rId263" xr:uid="{68453A57-1C90-4854-86A5-E83977529E58}"/>
+    <hyperlink ref="C187" r:id="rId264" xr:uid="{2162A613-A399-4FA3-BF17-7E3F69CE1DE9}"/>
+    <hyperlink ref="C188" r:id="rId265" xr:uid="{F776EDA6-B1A3-435B-B275-2F2DB94B4BAE}"/>
+    <hyperlink ref="C189" r:id="rId266" xr:uid="{80BCD02B-DAF4-47D6-A105-0CEE634631D3}"/>
+    <hyperlink ref="C190" r:id="rId267" xr:uid="{909B2D36-F87A-456F-9AAB-E3EA5ED98070}"/>
+    <hyperlink ref="C191" r:id="rId268" xr:uid="{F44D2AF3-239B-4483-ABBE-8859F71F69BC}"/>
+    <hyperlink ref="C192" r:id="rId269" xr:uid="{64D08B17-3C81-475B-BC7B-A715658E28FD}"/>
+    <hyperlink ref="C193" r:id="rId270" xr:uid="{D0302647-5843-44B6-BF08-71E0F8639B56}"/>
+    <hyperlink ref="C194" r:id="rId271" xr:uid="{82839214-CF58-489E-9461-20E413BEC015}"/>
+    <hyperlink ref="C195" r:id="rId272" xr:uid="{4628FE7A-F5BD-4F77-8ED2-19DECCBF1CE1}"/>
+    <hyperlink ref="C196" r:id="rId273" xr:uid="{CD5432F0-C413-4965-941A-18078B9631EE}"/>
+    <hyperlink ref="C197" r:id="rId274" xr:uid="{735A20FE-06D7-4E92-A5E0-B31D15FCA8F3}"/>
+    <hyperlink ref="C198" r:id="rId275" xr:uid="{3DA15385-5FFC-4212-869C-60204D73053C}"/>
+    <hyperlink ref="C199" r:id="rId276" xr:uid="{16BFE1A5-41A3-4818-B26B-5357BA17C19F}"/>
+    <hyperlink ref="C200" r:id="rId277" xr:uid="{DDEC0D7C-8BD8-4873-9BE0-ACE7D62B74A2}"/>
+    <hyperlink ref="C201" r:id="rId278" xr:uid="{F722FC63-C656-4DC5-9400-0C8FD7CD4497}"/>
+    <hyperlink ref="C202" r:id="rId279" xr:uid="{28B6FB95-5732-4BF5-9E2C-2DD1FFE1020F}"/>
+    <hyperlink ref="C203" r:id="rId280" xr:uid="{90F960B8-F5CE-47F4-90B8-546D0BDC8A88}"/>
+    <hyperlink ref="C204" r:id="rId281" xr:uid="{AA85CD0F-68CB-45A4-B5AB-A14C513CDCC0}"/>
+    <hyperlink ref="C205" r:id="rId282" xr:uid="{04959C79-61A1-47FD-8CEF-71C7D55C2CF3}"/>
+    <hyperlink ref="C206" r:id="rId283" xr:uid="{9D94B516-6ED3-452A-8AB2-9216ED94C432}"/>
+    <hyperlink ref="C207" r:id="rId284" xr:uid="{806E580E-0FC6-44C3-933B-94FACEB977CA}"/>
+    <hyperlink ref="C208" r:id="rId285" xr:uid="{211F39DF-DE7A-4E60-B38E-73DC34D9A233}"/>
+    <hyperlink ref="C209" r:id="rId286" xr:uid="{E513B4D2-0589-4F8E-B604-8A6BF589872A}"/>
+    <hyperlink ref="C210" r:id="rId287" xr:uid="{5E0B0731-DFFC-4B55-AE7B-ECB5B1FAEC15}"/>
+    <hyperlink ref="C211" r:id="rId288" xr:uid="{FE3DB559-918F-48B6-9098-315A80A9174B}"/>
+    <hyperlink ref="C212" r:id="rId289" xr:uid="{7FFE7A8C-3457-4631-B9E2-D78E747DF36B}"/>
+    <hyperlink ref="C213" r:id="rId290" xr:uid="{A043D2AD-013D-4A38-80E4-16EC6CA8EFCE}"/>
+    <hyperlink ref="C214" r:id="rId291" xr:uid="{D0DA2B74-B82F-44A2-9B08-4795D3A87BC2}"/>
+    <hyperlink ref="C215" r:id="rId292" xr:uid="{8A607126-BEE0-4991-AA69-75A2C284C865}"/>
+    <hyperlink ref="D2" r:id="rId293" xr:uid="{39594F13-BED9-462F-AF3C-5B9AAA1DC56F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId294"/>

--- a/卒業研究リンク.xlsx
+++ b/卒業研究リンク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y24504\Documents\GitHub\sotuken3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB8369-2FC0-4FC7-AB07-D805C1793D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5474C-D115-4489-8825-6EC94186FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="216" windowWidth="17316" windowHeight="16344" xr2:uid="{4C113A67-3032-4272-AAE7-508F55C4B7AF}"/>
   </bookViews>
